--- a/PolicyEffectiveness/0-DayLag_VermontPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_VermontPolicy.xlsx
@@ -1907,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0.8</v>
@@ -2299,7 +2299,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0.8</v>
@@ -2355,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.8</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.8</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.8</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0.8</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0.8</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0.8</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0.8</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0.8</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0.8</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0.8</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0.8</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0.8</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -4315,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0.8</v>
@@ -4371,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0.8</v>
@@ -4427,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0.8</v>
@@ -4483,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0.8</v>
@@ -4539,7 +4539,7 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0.8</v>
@@ -4595,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0.8</v>
@@ -4651,7 +4651,7 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0.8</v>
@@ -4707,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4763,7 +4763,7 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0.8</v>
@@ -4875,7 +4875,7 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0.8</v>
@@ -4931,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0.8</v>
@@ -4987,7 +4987,7 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0.8</v>
@@ -5043,7 +5043,7 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0.8</v>
@@ -5099,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0.8</v>
@@ -5155,7 +5155,7 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0.8</v>
@@ -5211,7 +5211,7 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -5323,7 +5323,7 @@
         <v>94</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -5379,7 +5379,7 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0.8</v>
@@ -5435,7 +5435,7 @@
         <v>96</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>0.8</v>
@@ -5491,7 +5491,7 @@
         <v>97</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0.8</v>
@@ -5547,7 +5547,7 @@
         <v>98</v>
       </c>
       <c r="B83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0.8</v>
@@ -5603,7 +5603,7 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0.8</v>
@@ -5659,7 +5659,7 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0.8</v>
@@ -5715,7 +5715,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0.8</v>
@@ -5771,7 +5771,7 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0.8</v>
@@ -5827,7 +5827,7 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -5883,7 +5883,7 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -5939,7 +5939,7 @@
         <v>105</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0.8</v>
@@ -5995,7 +5995,7 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0.8</v>
@@ -6051,7 +6051,7 @@
         <v>107</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0.6</v>
@@ -6107,7 +6107,7 @@
         <v>108</v>
       </c>
       <c r="B93">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0.6</v>
@@ -6163,7 +6163,7 @@
         <v>109</v>
       </c>
       <c r="B94">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0.6</v>
@@ -6219,7 +6219,7 @@
         <v>110</v>
       </c>
       <c r="B95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>111</v>
       </c>
       <c r="B96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>112</v>
       </c>
       <c r="B97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>113</v>
       </c>
       <c r="B98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>114</v>
       </c>
       <c r="B99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>115</v>
       </c>
       <c r="B100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>116</v>
       </c>
       <c r="B101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>0</v>
